--- a/engine/output/engine_efficiency.xlsx
+++ b/engine/output/engine_efficiency.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>Name</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TSFC Takeoff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -458,12 +463,15 @@
         <v>1959</v>
       </c>
       <c r="C2" t="n">
-        <v>28.1765</v>
+        <v>27.73567457211094</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>B707-300</t>
         </is>
+      </c>
+      <c r="E2" t="n">
+        <v>22.47123130034523</v>
       </c>
     </row>
     <row r="3">
@@ -474,12 +482,15 @@
         <v>1961</v>
       </c>
       <c r="C3" t="n">
-        <v>27.0278</v>
+        <v>26.63282981127525</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>B720-000</t>
         </is>
+      </c>
+      <c r="E3" t="n">
+        <v>21.14936708860759</v>
       </c>
     </row>
     <row r="4">
@@ -490,12 +501,15 @@
         <v>1965</v>
       </c>
       <c r="C4" t="n">
-        <v>22.298</v>
+        <v>22.09183986629342</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>DC9-10</t>
         </is>
+      </c>
+      <c r="E4" t="n">
+        <v>15.70655926352129</v>
       </c>
     </row>
     <row r="5">
@@ -506,12 +520,15 @@
         <v>1966</v>
       </c>
       <c r="C5" t="n">
-        <v>22.4331</v>
+        <v>22.22154677600779</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>DC9-30</t>
         </is>
+      </c>
+      <c r="E5" t="n">
+        <v>15.8620253164557</v>
       </c>
     </row>
     <row r="6">
@@ -522,12 +539,15 @@
         <v>1967</v>
       </c>
       <c r="C6" t="n">
-        <v>23.244</v>
+        <v>23.0000762585199</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>B727-200/231A</t>
         </is>
+      </c>
+      <c r="E6" t="n">
+        <v>16.795166858458</v>
       </c>
     </row>
     <row r="7">
@@ -538,12 +558,15 @@
         <v>1967</v>
       </c>
       <c r="C7" t="n">
-        <v>22.771</v>
+        <v>22.54595806240666</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>B737-100/200</t>
         </is>
+      </c>
+      <c r="E7" t="n">
+        <v>16.25086306098964</v>
       </c>
     </row>
     <row r="8">
@@ -554,12 +577,15 @@
         <v>1968</v>
       </c>
       <c r="C8" t="n">
-        <v>23.244</v>
+        <v>23.0000762585199</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>DC9-40</t>
         </is>
+      </c>
+      <c r="E8" t="n">
+        <v>16.795166858458</v>
       </c>
     </row>
     <row r="9">
@@ -570,12 +596,15 @@
         <v>1970</v>
       </c>
       <c r="C9" t="n">
-        <v>17.0953</v>
+        <v>17.09682773327364</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>DC10-10</t>
         </is>
+      </c>
+      <c r="E9" t="n">
+        <v>9.719562715765251</v>
       </c>
     </row>
     <row r="10">
@@ -586,12 +615,15 @@
         <v>1970</v>
       </c>
       <c r="C10" t="n">
-        <v>17.5682</v>
+        <v>17.55084992131159</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>B747-200/300</t>
         </is>
+      </c>
+      <c r="E10" t="n">
+        <v>10.26375143843499</v>
       </c>
     </row>
     <row r="11">
@@ -602,12 +634,15 @@
         <v>1970</v>
       </c>
       <c r="C11" t="n">
-        <v>17.6358</v>
+        <v>17.61575138020642</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>B747-100</t>
         </is>
+      </c>
+      <c r="E11" t="n">
+        <v>10.3415420023015</v>
       </c>
     </row>
     <row r="12">
@@ -618,12 +653,15 @@
         <v>1972</v>
       </c>
       <c r="C12" t="n">
-        <v>17.4331</v>
+        <v>17.42114301159722</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>DC10-40</t>
         </is>
+      </c>
+      <c r="E12" t="n">
+        <v>10.10828538550058</v>
       </c>
     </row>
     <row r="13">
@@ -634,12 +672,15 @@
         <v>1972</v>
       </c>
       <c r="C13" t="n">
-        <v>17.7708</v>
+        <v>17.74536228184551</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>DC10-30</t>
         </is>
+      </c>
+      <c r="E13" t="n">
+        <v>10.49689298043729</v>
       </c>
     </row>
     <row r="14">
@@ -650,12 +691,15 @@
         <v>1973</v>
       </c>
       <c r="C14" t="n">
-        <v>17.5682</v>
+        <v>17.55084992131159</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>L1011-1/100/200</t>
         </is>
+      </c>
+      <c r="E14" t="n">
+        <v>10.26375143843499</v>
       </c>
     </row>
     <row r="15">
@@ -666,12 +710,15 @@
         <v>1976</v>
       </c>
       <c r="C15" t="n">
-        <v>21.8926</v>
+        <v>21.70262312907501</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>DC9-50</t>
         </is>
+      </c>
+      <c r="E15" t="n">
+        <v>15.24004602991945</v>
       </c>
     </row>
     <row r="16">
@@ -682,12 +729,15 @@
         <v>1979</v>
       </c>
       <c r="C16" t="n">
-        <v>17.9738</v>
+        <v>17.94025867468058</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>L1011-500</t>
         </is>
+      </c>
+      <c r="E16" t="n">
+        <v>10.73049482163406</v>
       </c>
     </row>
     <row r="17">
@@ -698,12 +748,15 @@
         <v>1980</v>
       </c>
       <c r="C17" t="n">
-        <v>20.744</v>
+        <v>20.59987437631462</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>MD80/DC9-80</t>
         </is>
+      </c>
+      <c r="E17" t="n">
+        <v>13.91829689298044</v>
       </c>
     </row>
     <row r="18">
@@ -714,12 +767,15 @@
         <v>1983</v>
       </c>
       <c r="C18" t="n">
-        <v>17.0953</v>
+        <v>17.09682773327364</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>B767-200/ER</t>
         </is>
+      </c>
+      <c r="E18" t="n">
+        <v>9.719562715765251</v>
       </c>
     </row>
     <row r="19">
@@ -730,12 +786,15 @@
         <v>1984</v>
       </c>
       <c r="C19" t="n">
-        <v>16.8925</v>
+        <v>16.90212335658914</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>A300-600</t>
         </is>
+      </c>
+      <c r="E19" t="n">
+        <v>9.486191024165707</v>
       </c>
     </row>
     <row r="20">
@@ -746,12 +805,15 @@
         <v>1984</v>
       </c>
       <c r="C20" t="n">
-        <v>17.4331</v>
+        <v>17.42114301159722</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>B757-200</t>
         </is>
+      </c>
+      <c r="E20" t="n">
+        <v>10.10828538550058</v>
       </c>
     </row>
     <row r="21">
@@ -762,12 +824,15 @@
         <v>1984</v>
       </c>
       <c r="C21" t="n">
-        <v>20.8791</v>
+        <v>20.72958128602899</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>B737-300</t>
         </is>
+      </c>
+      <c r="E21" t="n">
+        <v>14.07376294591485</v>
       </c>
     </row>
     <row r="22">
@@ -778,12 +843,15 @@
         <v>1986</v>
       </c>
       <c r="C22" t="n">
-        <v>16.8925</v>
+        <v>16.90212335658914</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>A310-300</t>
         </is>
+      </c>
+      <c r="E22" t="n">
+        <v>9.486191024165707</v>
       </c>
     </row>
     <row r="23">
@@ -794,12 +862,15 @@
         <v>1987</v>
       </c>
       <c r="C23" t="n">
-        <v>16.9601</v>
+        <v>16.96702481548398</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>B767-300/ER</t>
         </is>
+      </c>
+      <c r="E23" t="n">
+        <v>9.563981588032222</v>
       </c>
     </row>
     <row r="24">
@@ -810,12 +881,15 @@
         <v>1988</v>
       </c>
       <c r="C24" t="n">
-        <v>16.8925</v>
+        <v>16.90212335658914</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>A320-100/200</t>
         </is>
+      </c>
+      <c r="E24" t="n">
+        <v>9.486191024165707</v>
       </c>
     </row>
     <row r="25">
@@ -826,12 +900,15 @@
         <v>1988</v>
       </c>
       <c r="C25" t="n">
-        <v>17.7708</v>
+        <v>17.74536228184551</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>B737-400</t>
         </is>
+      </c>
+      <c r="E25" t="n">
+        <v>10.49689298043729</v>
       </c>
     </row>
     <row r="26">
@@ -842,12 +919,15 @@
         <v>1989</v>
       </c>
       <c r="C26" t="n">
-        <v>17.4331</v>
+        <v>17.42114301159722</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>B747-400</t>
         </is>
+      </c>
+      <c r="E26" t="n">
+        <v>10.10828538550058</v>
       </c>
     </row>
     <row r="27">
@@ -858,12 +938,15 @@
         <v>1990</v>
       </c>
       <c r="C27" t="n">
-        <v>16.8925</v>
+        <v>16.90212335658914</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>MD11</t>
         </is>
+      </c>
+      <c r="E27" t="n">
+        <v>9.486191024165707</v>
       </c>
     </row>
     <row r="28">
@@ -874,12 +957,15 @@
         <v>1990</v>
       </c>
       <c r="C28" t="n">
-        <v>17.9738</v>
+        <v>17.94025867468058</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>B737-500/600</t>
         </is>
+      </c>
+      <c r="E28" t="n">
+        <v>10.73049482163406</v>
       </c>
     </row>
     <row r="29">
@@ -890,12 +976,15 @@
         <v>1995</v>
       </c>
       <c r="C29" t="n">
-        <v>15.8114</v>
+        <v>15.86418005464829</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>B777</t>
         </is>
+      </c>
+      <c r="E29" t="n">
+        <v>8.242117376294594</v>
       </c>
     </row>
     <row r="30">
@@ -903,368 +992,510 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="C30" t="n">
-        <v>17.28773126870821</v>
+        <v>17.42</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">737-700/700LR/Max 7                       </t>
-        </is>
-      </c>
+          <t xml:space="preserve">717-200                                   </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>1998</v>
+        <v>1964</v>
       </c>
       <c r="C31" t="n">
-        <v>17.63566548921198</v>
+        <v>22.52007039498443</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">737-800                                 </t>
-        </is>
-      </c>
+          <t xml:space="preserve">727-100                                   </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B32" t="n">
-        <v>2001</v>
+        <v>1968</v>
       </c>
       <c r="C32" t="n">
-        <v>17.74588377645939</v>
+        <v>22.44014078996885</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">737-900                                  </t>
-        </is>
-      </c>
+          <t xml:space="preserve">737-200C                                   </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B33" t="n">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="C33" t="n">
-        <v>17.63444277935031</v>
+        <v>17.28773126870821</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">737-900ER                                 </t>
-        </is>
-      </c>
+          <t xml:space="preserve">737-700/700LR/Max 7                       </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B34" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C34" t="n">
-        <v>17.278741900219</v>
+        <v>17.63566548921198</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">757-300                                   </t>
-        </is>
-      </c>
+          <t xml:space="preserve">737-800                                 </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B35" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C35" t="n">
-        <v>17.00474996911675</v>
+        <v>17.74588377645939</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">767-400/ER                                </t>
-        </is>
-      </c>
+          <t xml:space="preserve">737-900                                  </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B36" t="n">
-        <v>1997</v>
+        <v>2007</v>
       </c>
       <c r="C36" t="n">
-        <v>16.91179999230831</v>
+        <v>17.63444277935031</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">777-300/300ER/333ER                       </t>
-        </is>
-      </c>
+          <t xml:space="preserve">737-900ER                                 </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B37" t="n">
-        <v>2018</v>
+        <v>1999</v>
       </c>
       <c r="C37" t="n">
-        <v>15.33698632247987</v>
+        <v>17.278741900219</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">787-10 Dreamliner                          </t>
-        </is>
-      </c>
+          <t xml:space="preserve">757-300                                   </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B38" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C38" t="n">
-        <v>16.7661071789652</v>
+        <v>17.00474996911675</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">A319                        </t>
-        </is>
-      </c>
+          <t xml:space="preserve">767-400/ER                                </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B39" t="n">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="C39" t="n">
-        <v>17.42351819037375</v>
+        <v>16.29765369197297</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">A321/Lr                        </t>
-        </is>
-      </c>
+          <t xml:space="preserve">777-300/300ER/333ER                       </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B40" t="n">
-        <v>1998</v>
+        <v>2018</v>
       </c>
       <c r="C40" t="n">
-        <v>17.06869160600225</v>
+        <v>15.33698632247987</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">A330-200                    </t>
-        </is>
-      </c>
+          <t xml:space="preserve">787-10 Dreamliner                          </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B41" t="n">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="C41" t="n">
-        <v>16.98750959401909</v>
+        <v>16.7661071789652</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">A330-300/333                    </t>
-        </is>
-      </c>
+          <t xml:space="preserve">A319                        </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B42" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C42" t="n">
-        <v>15.30993156577482</v>
+        <v>14.9163310818809</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">A330-900                         </t>
-        </is>
-      </c>
+          <t xml:space="preserve">A320-200n                        </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B43" t="n">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="C43" t="n">
-        <v>15.73636826305148</v>
+        <v>14.99919751506516</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">B737 Max 800                               </t>
-        </is>
-      </c>
+          <t xml:space="preserve">A321-200n                        </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B44" t="n">
-        <v>2018</v>
+        <v>1994</v>
       </c>
       <c r="C44" t="n">
-        <v>15.73636826305148</v>
+        <v>17.42351819037375</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">B737 Max 900   </t>
-        </is>
-      </c>
+          <t xml:space="preserve">A321/Lr                        </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B45" t="n">
-        <v>2011</v>
+        <v>1998</v>
       </c>
       <c r="C45" t="n">
-        <v>15.33698632247987</v>
+        <v>16.9928785194305</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">B787-800 Dreamliner                              </t>
-        </is>
-      </c>
+          <t xml:space="preserve">A330-200                    </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B46" t="n">
-        <v>2014</v>
+        <v>1994</v>
       </c>
       <c r="C46" t="n">
-        <v>15.33698632247987</v>
+        <v>16.5453498438535</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">B787-900 Dreamliner                              </t>
-        </is>
-      </c>
+          <t xml:space="preserve">A330-300/333                    </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B47" t="n">
-        <v>2001</v>
+        <v>2018</v>
       </c>
       <c r="C47" t="n">
-        <v>18.13689908825537</v>
+        <v>15.30993156577482</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">CRJ 900                                 </t>
-        </is>
-      </c>
+          <t xml:space="preserve">A330-900                         </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B48" t="n">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="C48" t="n">
-        <v>17.58758235398228</v>
+        <v>15.73636826305148</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Embraer 190                                      </t>
-        </is>
-      </c>
+          <t xml:space="preserve">B737 Max 800                               </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B49" t="n">
-        <v>2005</v>
+        <v>2018</v>
       </c>
       <c r="C49" t="n">
-        <v>18.19612006630815</v>
+        <v>15.73636826305148</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Embraer ERJ-175                                  </t>
-        </is>
-      </c>
+          <t xml:space="preserve">B737 Max 900   </t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B50" t="n">
-        <v>1996</v>
+        <v>2011</v>
       </c>
       <c r="C50" t="n">
-        <v>18.13073907793062</v>
+        <v>15.33698632247987</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Embraer-145</t>
-        </is>
-      </c>
+          <t xml:space="preserve">B787-800 Dreamliner                              </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B51" t="n">
-        <v>1995</v>
+        <v>2014</v>
       </c>
       <c r="C51" t="n">
-        <v>16.88813484187854</v>
+        <v>15.33698632247987</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">MD-90                         </t>
-        </is>
-      </c>
+          <t xml:space="preserve">B787-900 Dreamliner                              </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B52" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C52" t="n">
+        <v>18.13689908825537</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CRJ 900                                 </t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C53" t="n">
+        <v>17.58758235398228</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Embraer 190                                      </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C54" t="n">
+        <v>18.19612006630815</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Embraer ERJ-175                                  </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C55" t="n">
+        <v>18.12812519816411</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Embraer-140                                      </t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C56" t="n">
+        <v>18.13073907793062</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Embraer-145</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C57" t="n">
+        <v>16.88813484187854</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MD-90                         </t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C58" t="n">
+        <v>19.49</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RJ-200ER /RJ-440                   </t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B59" t="n">
         <v>1999</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C59" t="n">
         <v>17.95993678687839</v>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t xml:space="preserve">RJ-700                                  </t>
         </is>
       </c>
+      <c r="E59" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
